--- a/src/results/unified_results_102_prompts_relation_determine_1_type.xlsx
+++ b/src/results/unified_results_102_prompts_relation_determine_1_type.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         </is>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         </is>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="F44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="F45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         </is>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="F62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         </is>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         </is>
       </c>
       <c r="F66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         </is>
       </c>
       <c r="F67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         </is>
       </c>
       <c r="F68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="F69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         </is>
       </c>
       <c r="F72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         </is>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         </is>
       </c>
       <c r="F79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="F80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         </is>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="F83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         </is>
       </c>
       <c r="F84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         </is>
       </c>
       <c r="F87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="F89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         </is>
       </c>
       <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="F92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         </is>
       </c>
       <c r="F94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="F97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="F100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="F102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         </is>
       </c>
       <c r="F109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         </is>
       </c>
       <c r="F110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         </is>
       </c>
       <c r="F121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         </is>
       </c>
       <c r="F139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         </is>
       </c>
       <c r="F177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         </is>
       </c>
       <c r="F197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         </is>
       </c>
       <c r="F201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
